--- a/assets/excel/学生选课表.xlsx
+++ b/assets/excel/学生选课表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\pyws\GameCfg\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FF3DA3-7229-4949-A477-1E16A5149CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D328C6-D9C0-4454-8D31-FF98F14BDFC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="117">
   <si>
     <t>comment</t>
   </si>
@@ -480,6 +480,14 @@
   </si>
   <si>
     <t>string|key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约定纯键值对表中，comment列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是键的注释，可不填</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1669,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1879,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2012,13 +2020,17 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
